--- a/artifacts/GCP_users.xlsx
+++ b/artifacts/GCP_users.xlsx
@@ -1,20 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="IAM_users" sheetId="1" r:id="rId1"/>
+    <sheet name="arctic-plasma-334710" sheetId="1" r:id="rId1"/>
+    <sheet name="myfirstgcp-379407" sheetId="2" r:id="rId2"/>
+    <sheet name="rogith-384802" sheetId="3" r:id="rId3"/>
+    <sheet name="rosy-sunspot-379209" sheetId="4" r:id="rId4"/>
+    <sheet name="sixth-backbone-384610" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="29">
   <si>
     <t>User type</t>
   </si>
@@ -22,16 +26,85 @@
     <t>ID</t>
   </si>
   <si>
+    <t>Roles Assigned</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>rogith.annamalai270398@gmail.com</t>
+  </si>
+  <si>
+    <t>roles/browser</t>
+  </si>
+  <si>
+    <t>workspace.rogith@gmail.com</t>
+  </si>
+  <si>
+    <t>roles/owner</t>
+  </si>
+  <si>
     <t>serviceAccount</t>
   </si>
   <si>
+    <t>test-iam-policy@arctic-plasma-334710.iam.gserviceaccount.com</t>
+  </si>
+  <si>
+    <t>roles/resourcemanager.projectIamAdmin</t>
+  </si>
+  <si>
+    <t>service-629933740217@compute-system.iam.gserviceaccount.com</t>
+  </si>
+  <si>
+    <t>roles/compute.serviceAgent</t>
+  </si>
+  <si>
+    <t>629933740217-compute@developer.gserviceaccount.com</t>
+  </si>
+  <si>
+    <t>roles/editor</t>
+  </si>
+  <si>
+    <t>629933740217@cloudservices.gserviceaccount.com</t>
+  </si>
+  <si>
+    <t>susizme44@gmail.com</t>
+  </si>
+  <si>
+    <t>roles/cloudasset.viewer, roles/cloudbuild.connectionViewer, roles/editor</t>
+  </si>
+  <si>
+    <t>testing-gcp-audit-scripts@rogith-384802.iam.gserviceaccount.com</t>
+  </si>
+  <si>
+    <t>roles/cloudfunctions.invoker, roles/editor, roles/run.developer</t>
+  </si>
+  <si>
+    <t>service-620791405590@compute-system.iam.gserviceaccount.com</t>
+  </si>
+  <si>
     <t>620791405590-compute@developer.gserviceaccount.com</t>
   </si>
   <si>
-    <t>user</t>
-  </si>
-  <si>
-    <t>susizme44@gmail.com</t>
+    <t>620791405590@cloudservices.gserviceaccount.com</t>
+  </si>
+  <si>
+    <t>service-382727631674@compute-system.iam.gserviceaccount.com</t>
+  </si>
+  <si>
+    <t>382727631674@cloudservices.gserviceaccount.com</t>
+  </si>
+  <si>
+    <t>382727631674-compute@developer.gserviceaccount.com</t>
+  </si>
+  <si>
+    <t>service-107176276557@compute-system.iam.gserviceaccount.com</t>
+  </si>
+  <si>
+    <t>107176276557-compute@developer.gserviceaccount.com</t>
+  </si>
+  <si>
+    <t>107176276557@cloudservices.gserviceaccount.com</t>
   </si>
 </sst>
 </file>
@@ -363,34 +436,388 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
       <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
         <v>4</v>
       </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
